--- a/RQ1_Results/Evaluation_Case_Results_and_Categories.xlsx
+++ b/RQ1_Results/Evaluation_Case_Results_and_Categories.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20412\Desktop\SaFE-APIOpt\RQ1_Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D47CCF4-EBD2-4789-AC6B-CF0B86ED3B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC218FC-767F-47C3-8E88-C16BB2ACEAF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -635,9 +635,6 @@
   </si>
   <si>
     <t>numpy.apply_along_axis(median, axis=1, x)</t>
-  </si>
-  <si>
-    <t>A * A * A</t>
   </si>
   <si>
     <t>math.cos / math.sin</t>
@@ -3902,6 +3899,10 @@
   </si>
   <si>
     <t>category</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>built-in *</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4282,22 +4283,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W213"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="22" max="22" width="37.75" customWidth="1"/>
-    <col min="23" max="23" width="26.75" customWidth="1"/>
+    <col min="22" max="22" width="37.77734375" customWidth="1"/>
+    <col min="23" max="23" width="26.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>769</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>770</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -4357,13 +4358,13 @@
         <v>18</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" ht="148.5" x14ac:dyDescent="0.15">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -4371,13 +4372,13 @@
         <v>186</v>
       </c>
       <c r="C2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F2">
         <v>9.9000000011173492E-7</v>
@@ -4428,13 +4429,13 @@
         <v>0</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="W2" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" ht="94.5" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -4442,13 +4443,13 @@
         <v>187</v>
       </c>
       <c r="C3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F3">
         <v>5.4449999999928167E-5</v>
@@ -4499,13 +4500,13 @@
         <v>0</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="W3" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" ht="94.5" x14ac:dyDescent="0.15">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -4513,13 +4514,13 @@
         <v>188</v>
       </c>
       <c r="C4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F4">
         <v>1.820000000130051E-6</v>
@@ -4570,13 +4571,13 @@
         <v>3.515625E-2</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="W4" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" ht="94.5" x14ac:dyDescent="0.15">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -4584,13 +4585,13 @@
         <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E5" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F5">
         <v>8.3999999998418666E-6</v>
@@ -4641,13 +4642,13 @@
         <v>0</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="W5" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" ht="189" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="201.6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -4655,13 +4656,13 @@
         <v>189</v>
       </c>
       <c r="C6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E6" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F6">
         <v>8.6899999999445751E-6</v>
@@ -4712,13 +4713,13 @@
         <v>1.30078125</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="W6" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" ht="108" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="115.2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -4726,13 +4727,13 @@
         <v>190</v>
       </c>
       <c r="C7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F7">
         <v>5.4000000000442598E-7</v>
@@ -4783,13 +4784,13 @@
         <v>0</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="W7" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" ht="189" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="201.6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -4797,13 +4798,13 @@
         <v>191</v>
       </c>
       <c r="C8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F8">
         <v>6.3499999999550024E-6</v>
@@ -4854,13 +4855,13 @@
         <v>0</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="W8" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="94.5" x14ac:dyDescent="0.15">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -4868,13 +4869,13 @@
         <v>192</v>
       </c>
       <c r="C9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E9" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F9">
         <v>1.8200000000412331E-6</v>
@@ -4925,13 +4926,13 @@
         <v>0</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="W9" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" ht="135" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="144" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -4939,13 +4940,13 @@
         <v>70</v>
       </c>
       <c r="C10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D10" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F10">
         <v>3.4200000002648781E-6</v>
@@ -4996,13 +4997,13 @@
         <v>0.11328125</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="W10" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" ht="94.5" x14ac:dyDescent="0.15">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -5010,13 +5011,13 @@
         <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E11" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F11">
         <v>5.3099999998806878E-6</v>
@@ -5067,13 +5068,13 @@
         <v>0</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="W11" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" ht="94.5" x14ac:dyDescent="0.15">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -5081,13 +5082,13 @@
         <v>120</v>
       </c>
       <c r="C12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D12" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E12" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F12">
         <v>5.2699999999461511E-6</v>
@@ -5138,13 +5139,13 @@
         <v>0</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="W12" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" ht="121.5" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="129.6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -5152,13 +5153,13 @@
         <v>193</v>
       </c>
       <c r="C13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D13" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E13" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F13">
         <v>7.1799999999733192E-6</v>
@@ -5209,13 +5210,13 @@
         <v>0</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="W13" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" ht="135" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="144" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -5223,13 +5224,13 @@
         <v>190</v>
       </c>
       <c r="C14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E14" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F14">
         <v>5.8199999999786202E-6</v>
@@ -5280,13 +5281,13 @@
         <v>0</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="W14" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" ht="135" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="144" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -5294,13 +5295,13 @@
         <v>194</v>
       </c>
       <c r="C15" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D15" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E15" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F15">
         <v>3.3700000000358438E-6</v>
@@ -5351,13 +5352,13 @@
         <v>0</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="W15" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" ht="202.5" x14ac:dyDescent="0.15">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="216" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -5365,13 +5366,13 @@
         <v>195</v>
       </c>
       <c r="C16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E16" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F16">
         <v>7.4499999999311216E-6</v>
@@ -5422,13 +5423,13 @@
         <v>0</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="W16" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" ht="135" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="144" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -5436,13 +5437,13 @@
         <v>196</v>
       </c>
       <c r="C17" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D17" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E17" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F17">
         <v>3.259999999905005E-6</v>
@@ -5493,13 +5494,13 @@
         <v>0</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="W17" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" ht="121.5" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" ht="129.6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -5507,13 +5508,13 @@
         <v>197</v>
       </c>
       <c r="C18" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D18" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E18" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F18">
         <v>1.405999999981589E-5</v>
@@ -5564,13 +5565,13 @@
         <v>1.171875E-2</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="W18" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" ht="202.5" x14ac:dyDescent="0.15">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="216" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -5578,13 +5579,13 @@
         <v>120</v>
       </c>
       <c r="C19" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D19" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E19" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F19">
         <v>8.569999999696875E-6</v>
@@ -5635,13 +5636,13 @@
         <v>0</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="W19" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" ht="108" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="115.2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -5649,13 +5650,13 @@
         <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D20" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E20" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F20">
         <v>1.083333333351533E-5</v>
@@ -5706,13 +5707,13 @@
         <v>0.19140625</v>
       </c>
       <c r="V20" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="W20" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" ht="108" x14ac:dyDescent="0.15">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="115.2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -5720,13 +5721,13 @@
         <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D21" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E21" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F21">
         <v>5.2099999998667101E-6</v>
@@ -5777,13 +5778,13 @@
         <v>7.421875E-2</v>
       </c>
       <c r="V21" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="W21" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" ht="175.5" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="187.2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -5791,13 +5792,13 @@
         <v>198</v>
       </c>
       <c r="C22" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D22" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E22" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F22">
         <v>2.2199999999994451E-5</v>
@@ -5848,13 +5849,13 @@
         <v>0.7421875</v>
       </c>
       <c r="V22" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="W22" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" ht="229.5" x14ac:dyDescent="0.15">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="244.8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -5862,13 +5863,13 @@
         <v>115</v>
       </c>
       <c r="C23" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D23" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E23" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F23">
         <v>9.4699999998226762E-6</v>
@@ -5919,13 +5920,13 @@
         <v>7.421875E-2</v>
       </c>
       <c r="V23" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="W23" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" ht="108" x14ac:dyDescent="0.15">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" ht="115.2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>39</v>
       </c>
@@ -5933,13 +5934,13 @@
         <v>84</v>
       </c>
       <c r="C24" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D24" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E24" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F24">
         <v>3.6750000000029808E-5</v>
@@ -5990,13 +5991,13 @@
         <v>0</v>
       </c>
       <c r="V24" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="W24" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" ht="94.5" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>40</v>
       </c>
@@ -6004,13 +6005,13 @@
         <v>90</v>
       </c>
       <c r="C25" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D25" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E25" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F25">
         <v>4.2500000001055581E-6</v>
@@ -6061,13 +6062,13 @@
         <v>6.640625E-2</v>
       </c>
       <c r="V25" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="W25" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" ht="162" x14ac:dyDescent="0.15">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="172.8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -6075,13 +6076,13 @@
         <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D26" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E26" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F26">
         <v>4.7850000000071453E-5</v>
@@ -6132,13 +6133,13 @@
         <v>0.1484375</v>
       </c>
       <c r="V26" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="W26" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" ht="94.5" x14ac:dyDescent="0.15">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -6146,13 +6147,13 @@
         <v>189</v>
       </c>
       <c r="C27" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D27" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E27" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F27">
         <v>5.1200000000584107E-6</v>
@@ -6203,13 +6204,13 @@
         <v>0</v>
       </c>
       <c r="V27" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="W27" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" ht="108" x14ac:dyDescent="0.15">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" ht="115.2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -6217,13 +6218,13 @@
         <v>40</v>
       </c>
       <c r="C28" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D28" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E28" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F28">
         <v>2.104000000011652E-5</v>
@@ -6274,13 +6275,13 @@
         <v>0</v>
       </c>
       <c r="V28" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="W28" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" ht="135" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" ht="144" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>43</v>
       </c>
@@ -6288,13 +6289,13 @@
         <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D29" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E29" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F29">
         <v>1.20599999998916E-5</v>
@@ -6345,13 +6346,13 @@
         <v>7.421875E-2</v>
       </c>
       <c r="V29" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="W29" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" ht="94.5" x14ac:dyDescent="0.15">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -6359,13 +6360,13 @@
         <v>199</v>
       </c>
       <c r="C30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D30" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E30" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F30">
         <v>1.9200000001440289E-6</v>
@@ -6416,13 +6417,13 @@
         <v>0</v>
       </c>
       <c r="V30" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="W30" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" ht="121.5" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" ht="129.6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>45</v>
       </c>
@@ -6430,13 +6431,13 @@
         <v>200</v>
       </c>
       <c r="C31" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D31" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E31" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F31">
         <v>1.087999999995759E-5</v>
@@ -6487,13 +6488,13 @@
         <v>0</v>
       </c>
       <c r="V31" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="W31" t="s">
         <v>582</v>
       </c>
-      <c r="W31" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" ht="148.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="32" spans="1:23" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>46</v>
       </c>
@@ -6501,13 +6502,13 @@
         <v>111</v>
       </c>
       <c r="C32" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D32" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E32" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F32">
         <v>6.8839999999870111E-5</v>
@@ -6558,13 +6559,13 @@
         <v>0</v>
       </c>
       <c r="V32" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="W32" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" ht="175.5" x14ac:dyDescent="0.15">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" ht="187.2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>47</v>
       </c>
@@ -6572,13 +6573,13 @@
         <v>201</v>
       </c>
       <c r="C33" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D33" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E33" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F33">
         <v>3.680000000105821E-6</v>
@@ -6629,13 +6630,13 @@
         <v>0</v>
       </c>
       <c r="V33" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="W33" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" ht="202.5" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" ht="216" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>48</v>
       </c>
@@ -6643,13 +6644,13 @@
         <v>202</v>
       </c>
       <c r="C34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D34" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E34" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F34">
         <v>1.007800000000891E-4</v>
@@ -6700,13 +6701,13 @@
         <v>0.16796875</v>
       </c>
       <c r="V34" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="W34" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" ht="108" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" ht="115.2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>49</v>
       </c>
@@ -6714,13 +6715,13 @@
         <v>203</v>
       </c>
       <c r="C35" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D35" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E35" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F35">
         <v>6.2199999998568952E-6</v>
@@ -6771,13 +6772,13 @@
         <v>0</v>
       </c>
       <c r="V35" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="W35" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" ht="148.5" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>50</v>
       </c>
@@ -6785,13 +6786,13 @@
         <v>204</v>
       </c>
       <c r="C36" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D36" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E36" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F36">
         <v>4.604999999999748E-5</v>
@@ -6842,27 +6843,27 @@
         <v>0</v>
       </c>
       <c r="V36" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="W36" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" ht="108" x14ac:dyDescent="0.15">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" ht="115.2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>51</v>
       </c>
       <c r="B37" t="s">
-        <v>205</v>
+        <v>771</v>
       </c>
       <c r="C37" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D37" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E37" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F37">
         <v>7.8500000000758512E-6</v>
@@ -6913,27 +6914,27 @@
         <v>7.8125E-3</v>
       </c>
       <c r="V37" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="W37" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" ht="148.5" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>52</v>
       </c>
       <c r="B38" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C38" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D38" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E38" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F38">
         <v>2.3000000001438541E-6</v>
@@ -6984,27 +6985,27 @@
         <v>0.1796875</v>
       </c>
       <c r="V38" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="W38" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" ht="121.5" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" ht="129.6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>53</v>
       </c>
       <c r="B39" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C39" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D39" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E39" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F39">
         <v>1.4900000001816239E-6</v>
@@ -7055,27 +7056,27 @@
         <v>95.37109375</v>
       </c>
       <c r="V39" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="W39" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" ht="148.5" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>54</v>
       </c>
       <c r="B40" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C40" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D40" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E40" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F40">
         <v>2.0599999998260899E-6</v>
@@ -7126,13 +7127,13 @@
         <v>7.421875E-2</v>
       </c>
       <c r="V40" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="W40" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" ht="243" x14ac:dyDescent="0.15">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" ht="259.2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>55</v>
       </c>
@@ -7140,13 +7141,13 @@
         <v>74</v>
       </c>
       <c r="C41" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D41" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E41" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F41">
         <v>1.729000000025849E-5</v>
@@ -7197,13 +7198,13 @@
         <v>0</v>
       </c>
       <c r="V41" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="W41" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" ht="135" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" ht="144" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>22</v>
       </c>
@@ -7211,13 +7212,13 @@
         <v>192</v>
       </c>
       <c r="C42" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D42" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E42" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F42">
         <v>4.4599999999839213E-6</v>
@@ -7268,27 +7269,27 @@
         <v>0</v>
       </c>
       <c r="V42" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="W42" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" ht="162" x14ac:dyDescent="0.15">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" ht="172.8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>56</v>
       </c>
       <c r="B43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C43" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D43" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E43" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F43">
         <v>8.5699999999633295E-6</v>
@@ -7339,13 +7340,13 @@
         <v>0</v>
       </c>
       <c r="V43" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W43" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" ht="108" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" ht="115.2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>57</v>
       </c>
@@ -7353,13 +7354,13 @@
         <v>190</v>
       </c>
       <c r="C44" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D44" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E44" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F44">
         <v>1.799999999985147E-6</v>
@@ -7410,13 +7411,13 @@
         <v>7.03125E-2</v>
       </c>
       <c r="V44" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="W44" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" ht="189" x14ac:dyDescent="0.15">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" ht="201.6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>58</v>
       </c>
@@ -7424,13 +7425,13 @@
         <v>157</v>
       </c>
       <c r="C45" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D45" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E45" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F45">
         <v>1.4950000000002461E-5</v>
@@ -7481,13 +7482,13 @@
         <v>0</v>
       </c>
       <c r="V45" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="W45" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" ht="148.5" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>59</v>
       </c>
@@ -7495,13 +7496,13 @@
         <v>109</v>
       </c>
       <c r="C46" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D46" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E46" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F46">
         <v>1.104200000000333E-4</v>
@@ -7552,27 +7553,27 @@
         <v>2.734375E-2</v>
       </c>
       <c r="V46" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="W46" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" ht="94.5" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C47" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D47" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E47" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F47">
         <v>9.0000000003698237E-7</v>
@@ -7623,13 +7624,13 @@
         <v>0</v>
       </c>
       <c r="V47" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="W47" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" ht="121.5" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" ht="129.6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>60</v>
       </c>
@@ -7637,13 +7638,13 @@
         <v>37</v>
       </c>
       <c r="C48" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D48" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E48" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F48">
         <v>1.9899999999939409E-5</v>
@@ -7694,27 +7695,27 @@
         <v>3.90625E-2</v>
       </c>
       <c r="V48" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="W48" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23" ht="121.5" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" ht="129.6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>61</v>
       </c>
       <c r="B49" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C49" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D49" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E49" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F49">
         <v>3.6400000000824662E-6</v>
@@ -7765,13 +7766,13 @@
         <v>0</v>
       </c>
       <c r="V49" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="W49" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="50" spans="1:23" ht="162" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" ht="172.8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>62</v>
       </c>
@@ -7779,13 +7780,13 @@
         <v>190</v>
       </c>
       <c r="C50" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D50" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E50" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F50">
         <v>1.4830000000021199E-6</v>
@@ -7836,27 +7837,27 @@
         <v>0.1640625</v>
       </c>
       <c r="V50" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="W50" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23" ht="121.5" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" ht="129.6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>63</v>
       </c>
       <c r="B51" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C51" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D51" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E51" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F51">
         <v>9.0399999997714534E-6</v>
@@ -7907,27 +7908,27 @@
         <v>0</v>
       </c>
       <c r="V51" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="W51" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23" ht="162" x14ac:dyDescent="0.15">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" ht="172.8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>64</v>
       </c>
       <c r="B52" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C52" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D52" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E52" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F52">
         <v>1.7693000000003071E-4</v>
@@ -7978,27 +7979,27 @@
         <v>0</v>
       </c>
       <c r="V52" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="W52" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="53" spans="1:23" ht="121.5" x14ac:dyDescent="0.15">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" ht="129.6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>65</v>
       </c>
       <c r="B53" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C53" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D53" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E53" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F53">
         <v>2.303999999995199E-5</v>
@@ -8049,27 +8050,27 @@
         <v>3.90625E-3</v>
       </c>
       <c r="V53" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="W53" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23" ht="121.5" x14ac:dyDescent="0.15">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" ht="129.6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>66</v>
       </c>
       <c r="B54" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C54" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D54" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E54" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F54">
         <v>1.8259999999958869E-5</v>
@@ -8120,27 +8121,27 @@
         <v>0</v>
       </c>
       <c r="V54" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="W54" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="55" spans="1:23" ht="162" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" ht="172.8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C55" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D55" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E55" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F55">
         <v>9.2000000001313257E-6</v>
@@ -8191,27 +8192,27 @@
         <v>2.75</v>
       </c>
       <c r="V55" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="W55" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="56" spans="1:23" ht="121.5" x14ac:dyDescent="0.15">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" ht="129.6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>67</v>
       </c>
       <c r="B56" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C56" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D56" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E56" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F56">
         <v>4.5500000000586736E-6</v>
@@ -8262,13 +8263,13 @@
         <v>0</v>
       </c>
       <c r="V56" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="W56" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="57" spans="1:23" ht="148.5" x14ac:dyDescent="0.15">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>68</v>
       </c>
@@ -8276,13 +8277,13 @@
         <v>190</v>
       </c>
       <c r="C57" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D57" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E57" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F57">
         <v>4.1310000000116527E-5</v>
@@ -8333,27 +8334,27 @@
         <v>0.25</v>
       </c>
       <c r="V57" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="W57" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="58" spans="1:23" ht="121.5" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" ht="129.6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>69</v>
       </c>
       <c r="B58" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C58" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D58" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E58" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F58">
         <v>7.209999999790995E-6</v>
@@ -8404,27 +8405,27 @@
         <v>0</v>
       </c>
       <c r="V58" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="W58" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="59" spans="1:23" ht="121.5" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" ht="129.6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>47</v>
       </c>
       <c r="B59" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C59" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D59" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E59" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F59">
         <v>4.1200000000074509E-6</v>
@@ -8475,13 +8476,13 @@
         <v>0.3125</v>
       </c>
       <c r="V59" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="W59" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="60" spans="1:23" ht="108" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" ht="115.2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>70</v>
       </c>
@@ -8489,13 +8490,13 @@
         <v>190</v>
       </c>
       <c r="C60" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D60" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E60" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F60">
         <v>3.0100000000921051E-6</v>
@@ -8546,27 +8547,27 @@
         <v>0</v>
       </c>
       <c r="V60" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="W60" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="61" spans="1:23" ht="108" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" ht="115.2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>71</v>
       </c>
       <c r="B61" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C61" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D61" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E61" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F61">
         <v>5.3899999999273966E-6</v>
@@ -8617,27 +8618,27 @@
         <v>0</v>
       </c>
       <c r="V61" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="W61" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="62" spans="1:23" ht="108" x14ac:dyDescent="0.15">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" ht="115.2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>72</v>
       </c>
       <c r="B62" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C62" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D62" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E62" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F62">
         <v>1.4129999999923369E-5</v>
@@ -8688,27 +8689,27 @@
         <v>0</v>
       </c>
       <c r="V62" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="W62" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="63" spans="1:23" ht="121.5" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" ht="129.6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>73</v>
       </c>
       <c r="B63" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C63" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D63" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E63" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F63">
         <v>2.84919999999822E-4</v>
@@ -8759,27 +8760,27 @@
         <v>3.90625E-3</v>
       </c>
       <c r="V63" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="W63" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="64" spans="1:23" ht="94.5" x14ac:dyDescent="0.15">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>47</v>
       </c>
       <c r="B64" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C64" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D64" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E64" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F64">
         <v>3.1700000001855241E-6</v>
@@ -8830,27 +8831,27 @@
         <v>0</v>
       </c>
       <c r="V64" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="W64" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="65" spans="1:23" ht="94.5" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>74</v>
       </c>
       <c r="B65" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C65" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D65" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E65" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F65">
         <v>8.9899999998088724E-6</v>
@@ -8901,27 +8902,27 @@
         <v>0</v>
       </c>
       <c r="V65" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="W65" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="66" spans="1:23" ht="121.5" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" ht="129.6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>75</v>
       </c>
       <c r="B66" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C66" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D66" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E66" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F66">
         <v>4.4810000000161668E-5</v>
@@ -8972,13 +8973,13 @@
         <v>0</v>
       </c>
       <c r="V66" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="W66" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="67" spans="1:23" ht="162" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" ht="172.8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>76</v>
       </c>
@@ -8986,13 +8987,13 @@
         <v>147</v>
       </c>
       <c r="C67" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D67" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E67" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F67">
         <v>2.2409000000012111E-4</v>
@@ -9043,13 +9044,13 @@
         <v>0</v>
       </c>
       <c r="V67" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="W67" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="68" spans="1:23" ht="121.5" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" ht="129.6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>53</v>
       </c>
@@ -9057,13 +9058,13 @@
         <v>70</v>
       </c>
       <c r="C68" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D68" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E68" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F68">
         <v>9.9000000002291695E-7</v>
@@ -9114,13 +9115,13 @@
         <v>0</v>
       </c>
       <c r="V68" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="W68" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="69" spans="1:23" ht="216" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" ht="230.4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>61</v>
       </c>
@@ -9128,13 +9129,13 @@
         <v>166</v>
       </c>
       <c r="C69" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D69" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E69" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F69">
         <v>1.070000000007454E-5</v>
@@ -9185,27 +9186,27 @@
         <v>0</v>
       </c>
       <c r="V69" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="W69" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="70" spans="1:23" ht="108" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" ht="115.2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>77</v>
       </c>
       <c r="B70" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C70" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D70" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E70" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F70">
         <v>5.3680000000166928E-5</v>
@@ -9256,27 +9257,27 @@
         <v>0</v>
       </c>
       <c r="V70" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W70" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="71" spans="1:23" ht="121.5" x14ac:dyDescent="0.15">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" ht="129.6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>78</v>
       </c>
       <c r="B71" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C71" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D71" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E71" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F71">
         <v>2.750000000073527E-6</v>
@@ -9327,27 +9328,27 @@
         <v>0</v>
       </c>
       <c r="V71" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W71" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="72" spans="1:23" ht="202.5" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" ht="216" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>79</v>
       </c>
       <c r="B72" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C72" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D72" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E72" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F72">
         <v>1.6049999999978581E-5</v>
@@ -9398,27 +9399,27 @@
         <v>0</v>
       </c>
       <c r="V72" s="2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W72" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="73" spans="1:23" ht="148.5" x14ac:dyDescent="0.15">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>80</v>
       </c>
       <c r="B73" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C73" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D73" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E73" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F73">
         <v>1.812000000009917E-5</v>
@@ -9469,13 +9470,13 @@
         <v>0.15625</v>
       </c>
       <c r="V73" s="2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="W73" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="74" spans="1:23" ht="175.5" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" ht="187.2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>81</v>
       </c>
@@ -9483,13 +9484,13 @@
         <v>22</v>
       </c>
       <c r="C74" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D74" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E74" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F74">
         <v>1.196999999990567E-5</v>
@@ -9540,27 +9541,27 @@
         <v>3.90625E-3</v>
       </c>
       <c r="V74" s="2" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="W74" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="75" spans="1:23" ht="175.5" x14ac:dyDescent="0.15">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" ht="187.2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>82</v>
       </c>
       <c r="B75" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C75" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D75" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E75" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F75">
         <v>3.9700000000308931E-6</v>
@@ -9611,13 +9612,13 @@
         <v>0</v>
       </c>
       <c r="V75" s="2" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="W75" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="76" spans="1:23" ht="108" x14ac:dyDescent="0.15">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" ht="115.2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>83</v>
       </c>
@@ -9625,13 +9626,13 @@
         <v>57</v>
       </c>
       <c r="C76" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D76" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E76" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F76">
         <v>1.040000000163133E-6</v>
@@ -9682,27 +9683,27 @@
         <v>0</v>
       </c>
       <c r="V76" s="2" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="W76" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="77" spans="1:23" ht="108" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" ht="115.2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>84</v>
       </c>
       <c r="B77" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C77" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D77" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E77" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F77">
         <v>6.9899999999734074E-6</v>
@@ -9753,13 +9754,13 @@
         <v>0</v>
       </c>
       <c r="V77" s="2" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="W77" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="78" spans="1:23" ht="94.5" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>85</v>
       </c>
@@ -9767,13 +9768,13 @@
         <v>74</v>
       </c>
       <c r="C78" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D78" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E78" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F78">
         <v>8.8099999999258223E-6</v>
@@ -9824,27 +9825,27 @@
         <v>0</v>
       </c>
       <c r="V78" s="2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="W78" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="79" spans="1:23" ht="378" x14ac:dyDescent="0.15">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" ht="403.2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>86</v>
       </c>
       <c r="B79" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C79" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D79" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E79" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F79">
         <v>1.187400000000061E-4</v>
@@ -9895,27 +9896,27 @@
         <v>0.1171875</v>
       </c>
       <c r="V79" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="W79" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="80" spans="1:23" ht="283.5" x14ac:dyDescent="0.15">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" ht="302.39999999999998" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>50</v>
       </c>
       <c r="B80" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C80" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D80" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E80" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F80">
         <v>2.7486000000003229E-4</v>
@@ -9966,13 +9967,13 @@
         <v>0.26953125</v>
       </c>
       <c r="V80" s="2" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="W80" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="81" spans="1:23" ht="202.5" x14ac:dyDescent="0.15">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" ht="216" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>87</v>
       </c>
@@ -9980,13 +9981,13 @@
         <v>28</v>
       </c>
       <c r="C81" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D81" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E81" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F81">
         <v>3.9469999999841578E-5</v>
@@ -10037,27 +10038,27 @@
         <v>0</v>
       </c>
       <c r="V81" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="W81" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="82" spans="1:23" ht="94.5" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>88</v>
       </c>
       <c r="B82" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C82" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D82" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E82" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F82">
         <v>4.9799999999322608E-6</v>
@@ -10108,27 +10109,27 @@
         <v>1.953125E-2</v>
       </c>
       <c r="V82" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="W82" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="83" spans="1:23" ht="121.5" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" ht="129.6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>89</v>
       </c>
       <c r="B83" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C83" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D83" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E83" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F83">
         <v>1.9100000000271681E-6</v>
@@ -10179,13 +10180,13 @@
         <v>0</v>
       </c>
       <c r="V83" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="W83" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="84" spans="1:23" ht="94.5" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>90</v>
       </c>
@@ -10193,13 +10194,13 @@
         <v>42</v>
       </c>
       <c r="C84" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D84" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E84" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F84">
         <v>6.3899999999783573E-6</v>
@@ -10250,27 +10251,27 @@
         <v>0</v>
       </c>
       <c r="V84" s="2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="W84" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="85" spans="1:23" ht="94.5" x14ac:dyDescent="0.15">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>74</v>
       </c>
       <c r="B85" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C85" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D85" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E85" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F85">
         <v>6.5099999998707846E-6</v>
@@ -10321,27 +10322,27 @@
         <v>0</v>
       </c>
       <c r="V85" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="W85" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="86" spans="1:23" ht="121.5" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23" ht="129.6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>91</v>
       </c>
       <c r="B86" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C86" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D86" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E86" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F86">
         <v>1.6900000000319441E-6</v>
@@ -10392,27 +10393,27 @@
         <v>0</v>
       </c>
       <c r="V86" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="W86" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="87" spans="1:23" ht="148.5" x14ac:dyDescent="0.15">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>92</v>
       </c>
       <c r="B87" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C87" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D87" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E87" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F87">
         <v>6.160000000043908E-6</v>
@@ -10463,13 +10464,13 @@
         <v>0</v>
       </c>
       <c r="V87" s="2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="W87" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="88" spans="1:23" ht="135" x14ac:dyDescent="0.15">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" ht="144" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>83</v>
       </c>
@@ -10477,13 +10478,13 @@
         <v>190</v>
       </c>
       <c r="C88" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D88" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E88" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F88">
         <v>2.650000000059549E-6</v>
@@ -10534,13 +10535,13 @@
         <v>0</v>
       </c>
       <c r="V88" s="2" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="W88" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="89" spans="1:23" ht="94.5" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>93</v>
       </c>
@@ -10548,13 +10549,13 @@
         <v>61</v>
       </c>
       <c r="C89" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D89" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E89" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F89">
         <v>1.170999999997591E-5</v>
@@ -10605,13 +10606,13 @@
         <v>0</v>
       </c>
       <c r="V89" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="W89" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="90" spans="1:23" ht="135" x14ac:dyDescent="0.15">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" ht="144" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>94</v>
       </c>
@@ -10619,13 +10620,13 @@
         <v>166</v>
       </c>
       <c r="C90" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D90" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E90" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F90">
         <v>2.0959999999980999E-5</v>
@@ -10676,27 +10677,27 @@
         <v>0.3359375</v>
       </c>
       <c r="V90" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="W90" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="91" spans="1:23" ht="94.5" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>95</v>
       </c>
       <c r="B91" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C91" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D91" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E91" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F91">
         <v>1.4199999999853219E-6</v>
@@ -10747,27 +10748,27 @@
         <v>0</v>
       </c>
       <c r="V91" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="W91" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="92" spans="1:23" ht="94.5" x14ac:dyDescent="0.15">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>96</v>
       </c>
       <c r="B92" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C92" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D92" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E92" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F92">
         <v>5.4930000000119612E-5</v>
@@ -10818,13 +10819,13 @@
         <v>0</v>
       </c>
       <c r="V92" s="2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="W92" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="93" spans="1:23" ht="94.5" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>97</v>
       </c>
@@ -10832,13 +10833,13 @@
         <v>116</v>
       </c>
       <c r="C93" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D93" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E93" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F93">
         <v>9.799999999948739E-7</v>
@@ -10889,13 +10890,13 @@
         <v>0</v>
       </c>
       <c r="V93" s="2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="W93" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="94" spans="1:23" ht="135" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23" ht="144" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>45</v>
       </c>
@@ -10903,13 +10904,13 @@
         <v>87</v>
       </c>
       <c r="C94" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D94" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E94" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F94">
         <v>3.5100000000731771E-6</v>
@@ -10960,27 +10961,27 @@
         <v>3.515625E-2</v>
       </c>
       <c r="V94" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="W94" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="95" spans="1:23" ht="121.5" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23" ht="129.6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C95" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D95" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E95" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F95">
         <v>1.6649999999973632E-5</v>
@@ -11031,27 +11032,27 @@
         <v>0</v>
       </c>
       <c r="V95" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="W95" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="96" spans="1:23" ht="135" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" ht="144" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C96" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D96" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E96" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F96">
         <v>9.4069999999923942E-5</v>
@@ -11102,27 +11103,27 @@
         <v>0.15234375</v>
       </c>
       <c r="V96" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="W96" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="97" spans="1:23" ht="189" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23" ht="201.6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C97" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D97" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E97" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F97">
         <v>1.1790000000111429E-5</v>
@@ -11173,27 +11174,27 @@
         <v>0</v>
       </c>
       <c r="V97" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="W97" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="98" spans="1:23" ht="108" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23" ht="115.2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C98" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D98" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E98" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F98">
         <v>3.859999999988872E-6</v>
@@ -11244,13 +11245,13 @@
         <v>0</v>
       </c>
       <c r="V98" s="2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="W98" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="99" spans="1:23" ht="121.5" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" ht="129.6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>102</v>
       </c>
@@ -11258,13 +11259,13 @@
         <v>37</v>
       </c>
       <c r="C99" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D99" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E99" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F99">
         <v>5.0599999998901524E-6</v>
@@ -11315,13 +11316,13 @@
         <v>0.4609375</v>
       </c>
       <c r="V99" s="2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="W99" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="100" spans="1:23" ht="270" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" ht="288" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>103</v>
       </c>
@@ -11329,13 +11330,13 @@
         <v>63</v>
       </c>
       <c r="C100" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D100" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E100" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F100">
         <v>3.7360000000141727E-5</v>
@@ -11386,13 +11387,13 @@
         <v>0</v>
       </c>
       <c r="V100" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="W100" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="101" spans="1:23" ht="135" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" ht="144" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>104</v>
       </c>
@@ -11400,13 +11401,13 @@
         <v>28</v>
       </c>
       <c r="C101" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D101" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E101" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F101">
         <v>2.3360000000049999E-5</v>
@@ -11457,13 +11458,13 @@
         <v>0</v>
       </c>
       <c r="V101" s="2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="W101" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="102" spans="1:23" ht="94.5" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>92</v>
       </c>
@@ -11471,13 +11472,13 @@
         <v>40</v>
       </c>
       <c r="C102" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D102" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E102" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F102">
         <v>3.1000000000780401E-6</v>
@@ -11528,13 +11529,13 @@
         <v>0</v>
       </c>
       <c r="V102" s="2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="W102" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="103" spans="1:23" ht="216" x14ac:dyDescent="0.15">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" ht="230.4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>40</v>
       </c>
@@ -11542,13 +11543,13 @@
         <v>121</v>
       </c>
       <c r="C103" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D103" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E103" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F103">
         <v>8.9400000002015642E-6</v>
@@ -11599,13 +11600,13 @@
         <v>7.421875E-2</v>
       </c>
       <c r="V103" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="W103" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="104" spans="1:23" ht="148.5" x14ac:dyDescent="0.15">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>105</v>
       </c>
@@ -11613,13 +11614,13 @@
         <v>32</v>
       </c>
       <c r="C104" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D104" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E104" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F104">
         <v>0.1921209499999999</v>
@@ -11670,27 +11671,27 @@
         <v>0</v>
       </c>
       <c r="V104" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="W104" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="105" spans="1:23" ht="189" x14ac:dyDescent="0.15">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23" ht="201.6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>106</v>
       </c>
       <c r="B105" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C105" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D105" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E105" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F105">
         <v>4.1993999999991868E-4</v>
@@ -11741,13 +11742,13 @@
         <v>20.05078125</v>
       </c>
       <c r="V105" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="W105" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="106" spans="1:23" ht="216" x14ac:dyDescent="0.15">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" ht="230.4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>42</v>
       </c>
@@ -11755,13 +11756,13 @@
         <v>92</v>
       </c>
       <c r="C106" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D106" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E106" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F106">
         <v>1.0361000000020941E-4</v>
@@ -11812,27 +11813,27 @@
         <v>0</v>
       </c>
       <c r="V106" s="2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="W106" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="107" spans="1:23" ht="94.5" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>28</v>
       </c>
       <c r="B107" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C107" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D107" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E107" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F107">
         <v>9.0700000000332185E-6</v>
@@ -11883,13 +11884,13 @@
         <v>0</v>
       </c>
       <c r="V107" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="W107" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="108" spans="1:23" ht="121.5" x14ac:dyDescent="0.15">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23" ht="129.6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -11897,13 +11898,13 @@
         <v>92</v>
       </c>
       <c r="C108" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D108" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E108" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F108">
         <v>5.0500000002173808E-6</v>
@@ -11954,13 +11955,13 @@
         <v>0</v>
       </c>
       <c r="V108" s="2" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="W108" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="109" spans="1:23" ht="243" x14ac:dyDescent="0.15">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23" ht="259.2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>100</v>
       </c>
@@ -11968,13 +11969,13 @@
         <v>74</v>
       </c>
       <c r="C109" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D109" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E109" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F109">
         <v>2.0450000000060701E-5</v>
@@ -12025,27 +12026,27 @@
         <v>0</v>
       </c>
       <c r="V109" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="W109" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="110" spans="1:23" ht="108" x14ac:dyDescent="0.15">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23" ht="115.2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C110" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D110" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E110" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F110">
         <v>9.1999999999536893E-6</v>
@@ -12096,13 +12097,13 @@
         <v>1144.41015625</v>
       </c>
       <c r="V110" s="2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="W110" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="111" spans="1:23" ht="108" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23" ht="115.2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>109</v>
       </c>
@@ -12110,13 +12111,13 @@
         <v>74</v>
       </c>
       <c r="C111" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D111" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E111" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F111">
         <v>7.5510000000011954E-5</v>
@@ -12167,27 +12168,27 @@
         <v>0</v>
       </c>
       <c r="V111" s="2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="W111" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="112" spans="1:23" ht="351" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23" ht="374.4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C112" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D112" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E112" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F112">
         <v>1.8700000000038131E-5</v>
@@ -12238,27 +12239,27 @@
         <v>0.484375</v>
       </c>
       <c r="V112" s="2" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="W112" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="113" spans="1:23" ht="108" x14ac:dyDescent="0.15">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="113" spans="1:23" ht="115.2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C113" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D113" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E113" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F113">
         <v>1.5769999999815099E-5</v>
@@ -12309,27 +12310,27 @@
         <v>16.40234375</v>
       </c>
       <c r="V113" s="2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="W113" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="114" spans="1:23" ht="108" x14ac:dyDescent="0.15">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="114" spans="1:23" ht="115.2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>42</v>
       </c>
       <c r="B114" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C114" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D114" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E114" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F114">
         <v>7.1400000001275998E-6</v>
@@ -12380,27 +12381,27 @@
         <v>0</v>
       </c>
       <c r="V114" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="W114" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="115" spans="1:23" ht="162" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="115" spans="1:23" ht="172.8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>21</v>
       </c>
       <c r="B115" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C115" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D115" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E115" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F115">
         <v>8.9800000000472835E-6</v>
@@ -12451,27 +12452,27 @@
         <v>0</v>
       </c>
       <c r="V115" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="W115" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="116" spans="1:23" ht="121.5" x14ac:dyDescent="0.15">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="116" spans="1:23" ht="129.6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>112</v>
       </c>
       <c r="B116" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C116" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D116" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E116" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F116">
         <v>2.3809999999979679E-5</v>
@@ -12522,13 +12523,13 @@
         <v>0</v>
       </c>
       <c r="V116" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="W116" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="117" spans="1:23" ht="94.5" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="117" spans="1:23" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>113</v>
       </c>
@@ -12536,13 +12537,13 @@
         <v>119</v>
       </c>
       <c r="C117" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D117" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E117" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F117">
         <v>1.262999999998016E-5</v>
@@ -12593,27 +12594,27 @@
         <v>0</v>
       </c>
       <c r="V117" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="W117" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="118" spans="1:23" ht="409.5" x14ac:dyDescent="0.15">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="118" spans="1:23" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>114</v>
       </c>
       <c r="B118" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C118" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D118" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E118" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F118">
         <v>7.6310000000008311E-4</v>
@@ -12664,27 +12665,27 @@
         <v>0</v>
       </c>
       <c r="V118" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="W118" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="119" spans="1:23" ht="297" x14ac:dyDescent="0.15">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="119" spans="1:23" ht="316.8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>115</v>
       </c>
       <c r="B119" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C119" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D119" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E119" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F119">
         <v>4.0000000001150227E-6</v>
@@ -12735,27 +12736,27 @@
         <v>0</v>
       </c>
       <c r="V119" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="W119" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="120" spans="1:23" ht="94.5" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="120" spans="1:23" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>66</v>
       </c>
       <c r="B120" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C120" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D120" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E120" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F120">
         <v>1.396999999991877E-5</v>
@@ -12806,27 +12807,27 @@
         <v>0</v>
       </c>
       <c r="V120" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="W120" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="121" spans="1:23" ht="94.5" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="121" spans="1:23" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>116</v>
       </c>
       <c r="B121" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C121" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D121" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E121" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F121">
         <v>6.2000000013995302E-7</v>
@@ -12877,27 +12878,27 @@
         <v>0</v>
       </c>
       <c r="V121" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="W121" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="122" spans="1:23" ht="108" x14ac:dyDescent="0.15">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="122" spans="1:23" ht="115.2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>28</v>
       </c>
       <c r="B122" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C122" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D122" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E122" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F122">
         <v>6.9200000001323758E-6</v>
@@ -12948,27 +12949,27 @@
         <v>3.90625E-3</v>
       </c>
       <c r="V122" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="W122" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="123" spans="1:23" ht="175.5" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="123" spans="1:23" ht="187.2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>117</v>
       </c>
       <c r="B123" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C123" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D123" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E123" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F123">
         <v>5.6299999998010721E-6</v>
@@ -13019,27 +13020,27 @@
         <v>0</v>
       </c>
       <c r="V123" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="W123" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="124" spans="1:23" ht="135" x14ac:dyDescent="0.15">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="124" spans="1:23" ht="144" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>21</v>
       </c>
       <c r="B124" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C124" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D124" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E124" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F124">
         <v>1.9500000000505229E-6</v>
@@ -13090,27 +13091,27 @@
         <v>8.203125E-2</v>
       </c>
       <c r="V124" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="W124" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="125" spans="1:23" ht="135" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="125" spans="1:23" ht="144" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>118</v>
       </c>
       <c r="B125" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C125" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D125" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E125" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F125">
         <v>6.649999999908118E-6</v>
@@ -13161,13 +13162,13 @@
         <v>0</v>
       </c>
       <c r="V125" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="W125" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="126" spans="1:23" ht="189" x14ac:dyDescent="0.15">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="126" spans="1:23" ht="201.6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>119</v>
       </c>
@@ -13175,13 +13176,13 @@
         <v>28</v>
       </c>
       <c r="C126" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D126" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E126" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F126">
         <v>5.64549999999997E-4</v>
@@ -13232,27 +13233,27 @@
         <v>2.40625</v>
       </c>
       <c r="V126" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="W126" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="127" spans="1:23" ht="108" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="127" spans="1:23" ht="115.2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>95</v>
       </c>
       <c r="B127" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C127" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D127" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E127" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F127">
         <v>1.5500000000834289E-6</v>
@@ -13303,13 +13304,13 @@
         <v>0.20703125</v>
       </c>
       <c r="V127" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="W127" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="128" spans="1:23" ht="202.5" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="128" spans="1:23" ht="216" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>49</v>
       </c>
@@ -13317,13 +13318,13 @@
         <v>189</v>
       </c>
       <c r="C128" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D128" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E128" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F128">
         <v>3.3939999999876852E-5</v>
@@ -13374,27 +13375,27 @@
         <v>0</v>
       </c>
       <c r="V128" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="W128" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="129" spans="1:23" ht="94.5" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="129" spans="1:23" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>92</v>
       </c>
       <c r="B129" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C129" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D129" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E129" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F129">
         <v>3.4500000001713721E-6</v>
@@ -13445,27 +13446,27 @@
         <v>0</v>
       </c>
       <c r="V129" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="W129" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="130" spans="1:23" ht="94.5" x14ac:dyDescent="0.15">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="130" spans="1:23" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>120</v>
       </c>
       <c r="B130" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C130" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D130" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E130" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F130">
         <v>4.5500000000586736E-6</v>
@@ -13516,27 +13517,27 @@
         <v>0</v>
       </c>
       <c r="V130" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="W130" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="131" spans="1:23" ht="162" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="131" spans="1:23" ht="172.8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>109</v>
       </c>
       <c r="B131" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C131" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D131" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E131" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F131">
         <v>5.6440000000090858E-5</v>
@@ -13587,27 +13588,27 @@
         <v>0.14453125</v>
       </c>
       <c r="V131" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="W131" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="132" spans="1:23" ht="148.5" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="132" spans="1:23" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>22</v>
       </c>
       <c r="B132" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C132" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D132" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E132" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F132">
         <v>6.9899999998845884E-6</v>
@@ -13658,27 +13659,27 @@
         <v>0</v>
       </c>
       <c r="V132" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="W132" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="133" spans="1:23" ht="121.5" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="133" spans="1:23" ht="129.6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>121</v>
       </c>
       <c r="B133" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C133" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D133" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E133" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F133">
         <v>3.8399999999327859E-6</v>
@@ -13729,13 +13730,13 @@
         <v>0</v>
       </c>
       <c r="V133" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="W133" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="134" spans="1:23" ht="108" x14ac:dyDescent="0.15">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="134" spans="1:23" ht="115.2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>58</v>
       </c>
@@ -13743,13 +13744,13 @@
         <v>63</v>
       </c>
       <c r="C134" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D134" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E134" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F134">
         <v>8.9100000000286173E-6</v>
@@ -13800,27 +13801,27 @@
         <v>7.8125E-3</v>
       </c>
       <c r="V134" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="W134" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="135" spans="1:23" ht="162" x14ac:dyDescent="0.15">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="135" spans="1:23" ht="172.8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>90</v>
       </c>
       <c r="B135" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C135" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D135" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E135" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F135">
         <v>1.155000000006012E-5</v>
@@ -13871,27 +13872,27 @@
         <v>762.94140625</v>
       </c>
       <c r="V135" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="W135" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="136" spans="1:23" ht="189" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="136" spans="1:23" ht="201.6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>98</v>
       </c>
       <c r="B136" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C136" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D136" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E136" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F136">
         <v>2.597999999993661E-5</v>
@@ -13942,27 +13943,27 @@
         <v>0</v>
       </c>
       <c r="V136" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="W136" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="137" spans="1:23" ht="135" x14ac:dyDescent="0.15">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="137" spans="1:23" ht="144" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>122</v>
       </c>
       <c r="B137" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C137" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D137" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E137" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F137">
         <v>6.9699999999173196E-6</v>
@@ -14013,13 +14014,13 @@
         <v>0.2109375</v>
       </c>
       <c r="V137" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="W137" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="138" spans="1:23" ht="148.5" x14ac:dyDescent="0.15">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="138" spans="1:23" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>123</v>
       </c>
@@ -14027,13 +14028,13 @@
         <v>124</v>
       </c>
       <c r="C138" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D138" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E138" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F138">
         <v>7.2021111845970158E-4</v>
@@ -14084,27 +14085,27 @@
         <v>0</v>
       </c>
       <c r="V138" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="W138" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="139" spans="1:23" ht="121.5" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="139" spans="1:23" ht="129.6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>124</v>
       </c>
       <c r="B139" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C139" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D139" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E139" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F139">
         <v>8.033595979213715E-4</v>
@@ -14155,27 +14156,27 @@
         <v>0.6171875</v>
       </c>
       <c r="V139" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="W139" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="140" spans="1:23" ht="216" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="140" spans="1:23" ht="230.4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>125</v>
       </c>
       <c r="B140" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C140" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D140" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E140" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F140">
         <v>3.3074619859689851E-4</v>
@@ -14226,27 +14227,27 @@
         <v>0</v>
       </c>
       <c r="V140" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="W140" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="141" spans="1:23" ht="108" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="141" spans="1:23" ht="115.2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>126</v>
       </c>
       <c r="B141" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C141" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D141" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E141" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F141">
         <v>8.8235099974554032E-4</v>
@@ -14297,27 +14298,27 @@
         <v>0</v>
       </c>
       <c r="V141" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="W141" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="142" spans="1:23" ht="121.5" x14ac:dyDescent="0.15">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="142" spans="1:23" ht="129.6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>119</v>
       </c>
       <c r="B142" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C142" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D142" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E142" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F142">
         <v>3.9933349908096718E-4</v>
@@ -14368,27 +14369,27 @@
         <v>0</v>
       </c>
       <c r="V142" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="W142" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="143" spans="1:23" ht="121.5" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="143" spans="1:23" ht="129.6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>127</v>
       </c>
       <c r="B143" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C143" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D143" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E143" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F143">
         <v>2.5462500052526589E-4</v>
@@ -14439,13 +14440,13 @@
         <v>0</v>
       </c>
       <c r="V143" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="W143" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="144" spans="1:23" ht="108" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="144" spans="1:23" ht="115.2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>128</v>
       </c>
@@ -14453,13 +14454,13 @@
         <v>20</v>
       </c>
       <c r="C144" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D144" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E144" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F144">
         <v>1.14610000000237E-4</v>
@@ -14510,27 +14511,27 @@
         <v>0</v>
       </c>
       <c r="V144" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="W144" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="145" spans="1:23" ht="148.5" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="145" spans="1:23" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>129</v>
       </c>
       <c r="B145" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C145" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D145" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E145" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F145">
         <v>1.4968099999998149E-3</v>
@@ -14581,27 +14582,27 @@
         <v>5.46875E-2</v>
       </c>
       <c r="V145" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="W145" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="146" spans="1:23" ht="135" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="146" spans="1:23" ht="144" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>130</v>
       </c>
       <c r="B146" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C146" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D146" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E146" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F146">
         <v>1.068000000000957E-4</v>
@@ -14652,13 +14653,13 @@
         <v>2.38671875</v>
       </c>
       <c r="V146" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="W146" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="147" spans="1:23" ht="216" x14ac:dyDescent="0.15">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="147" spans="1:23" ht="230.4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>131</v>
       </c>
@@ -14666,13 +14667,13 @@
         <v>77</v>
       </c>
       <c r="C147" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D147" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E147" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F147">
         <v>1.3507099999999991E-3</v>
@@ -14723,27 +14724,27 @@
         <v>0</v>
       </c>
       <c r="V147" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="W147" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="148" spans="1:23" ht="94.5" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="148" spans="1:23" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>132</v>
       </c>
       <c r="B148" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C148" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D148" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E148" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F148">
         <v>1.004200000001454E-4</v>
@@ -14794,27 +14795,27 @@
         <v>0</v>
       </c>
       <c r="V148" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="W148" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="149" spans="1:23" ht="108" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="149" spans="1:23" ht="115.2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>133</v>
       </c>
       <c r="B149" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C149" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D149" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E149" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F149">
         <v>2.972999999997228E-5</v>
@@ -14865,27 +14866,27 @@
         <v>0</v>
       </c>
       <c r="V149" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="W149" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="150" spans="1:23" ht="135" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="150" spans="1:23" ht="144" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>134</v>
       </c>
       <c r="B150" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C150" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D150" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E150" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F150">
         <v>1.486643999999995E-2</v>
@@ -14936,27 +14937,27 @@
         <v>0.38671875</v>
       </c>
       <c r="V150" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="W150" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="151" spans="1:23" ht="94.5" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="151" spans="1:23" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>119</v>
       </c>
       <c r="B151" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C151" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D151" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E151" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F151">
         <v>3.2499999999924259E-5</v>
@@ -15007,13 +15008,13 @@
         <v>0</v>
       </c>
       <c r="V151" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="W151" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="152" spans="1:23" ht="94.5" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="152" spans="1:23" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>135</v>
       </c>
@@ -15021,13 +15022,13 @@
         <v>124</v>
       </c>
       <c r="C152" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D152" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E152" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F152">
         <v>4.7479999999922032E-5</v>
@@ -15078,27 +15079,27 @@
         <v>0.19921875</v>
       </c>
       <c r="V152" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="W152" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="153" spans="1:23" ht="409.5" x14ac:dyDescent="0.15">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="153" spans="1:23" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>136</v>
       </c>
       <c r="B153" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C153" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D153" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E153" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F153">
         <v>1.2911599999998909E-3</v>
@@ -15149,27 +15150,27 @@
         <v>2.75390625</v>
       </c>
       <c r="V153" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="W153" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="154" spans="1:23" ht="175.5" x14ac:dyDescent="0.15">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="154" spans="1:23" ht="187.2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>131</v>
       </c>
       <c r="B154" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C154" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D154" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E154" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F154">
         <v>3.6166999999984742E-4</v>
@@ -15220,13 +15221,13 @@
         <v>0</v>
       </c>
       <c r="V154" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="W154" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="155" spans="1:23" ht="409.5" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="155" spans="1:23" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>137</v>
       </c>
@@ -15234,13 +15235,13 @@
         <v>143</v>
       </c>
       <c r="C155" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D155" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E155" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F155">
         <v>7.2929999999971074E-5</v>
@@ -15291,27 +15292,27 @@
         <v>0.671875</v>
       </c>
       <c r="V155" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="W155" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="156" spans="1:23" ht="148.5" x14ac:dyDescent="0.15">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="156" spans="1:23" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>63</v>
       </c>
       <c r="B156" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C156" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D156" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E156" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F156">
         <v>8.2299999999868583E-6</v>
@@ -15362,27 +15363,27 @@
         <v>0</v>
       </c>
       <c r="V156" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="W156" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="157" spans="1:23" ht="135" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="157" spans="1:23" ht="144" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>119</v>
       </c>
       <c r="B157" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C157" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D157" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E157" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F157">
         <v>6.2859999999975719E-5</v>
@@ -15433,27 +15434,27 @@
         <v>0</v>
       </c>
       <c r="V157" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="W157" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="158" spans="1:23" ht="162" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="158" spans="1:23" ht="172.8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>138</v>
       </c>
       <c r="B158" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C158" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D158" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E158" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F158">
         <v>4.6520000000249687E-5</v>
@@ -15504,13 +15505,13 @@
         <v>0</v>
       </c>
       <c r="V158" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="W158" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="159" spans="1:23" ht="121.5" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="159" spans="1:23" ht="129.6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>139</v>
       </c>
@@ -15518,13 +15519,13 @@
         <v>143</v>
       </c>
       <c r="C159" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D159" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E159" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F159">
         <v>5.0389999999911343E-5</v>
@@ -15575,27 +15576,27 @@
         <v>0.25</v>
       </c>
       <c r="V159" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="W159" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="160" spans="1:23" ht="121.5" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="160" spans="1:23" ht="129.6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>124</v>
       </c>
       <c r="B160" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C160" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D160" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E160" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F160">
         <v>2.2724800000002432E-3</v>
@@ -15646,27 +15647,27 @@
         <v>2.34375E-2</v>
       </c>
       <c r="V160" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="W160" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="161" spans="1:23" ht="94.5" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="161" spans="1:23" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>140</v>
       </c>
       <c r="B161" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C161" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D161" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E161" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F161">
         <v>6.0399999999916067E-5</v>
@@ -15717,27 +15718,27 @@
         <v>0</v>
       </c>
       <c r="V161" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="W161" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="162" spans="1:23" ht="162" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="162" spans="1:23" ht="172.8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>141</v>
       </c>
       <c r="B162" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C162" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D162" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E162" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F162">
         <v>1.439799999999103E-4</v>
@@ -15788,13 +15789,13 @@
         <v>0</v>
       </c>
       <c r="V162" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="W162" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="163" spans="1:23" ht="148.5" x14ac:dyDescent="0.15">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="163" spans="1:23" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>142</v>
       </c>
@@ -15802,13 +15803,13 @@
         <v>124</v>
       </c>
       <c r="C163" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D163" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E163" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F163">
         <v>4.4642000000010278E-4</v>
@@ -15859,27 +15860,27 @@
         <v>0</v>
       </c>
       <c r="V163" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="W163" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="164" spans="1:23" ht="148.5" x14ac:dyDescent="0.15">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="164" spans="1:23" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>143</v>
       </c>
       <c r="B164" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C164" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D164" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E164" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F164">
         <v>2.7088999999991259E-4</v>
@@ -15930,27 +15931,27 @@
         <v>5.46875E-2</v>
       </c>
       <c r="V164" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="W164" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="165" spans="1:23" ht="135" x14ac:dyDescent="0.15">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="165" spans="1:23" ht="144" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>119</v>
       </c>
       <c r="B165" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C165" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D165" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E165" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F165">
         <v>4.153899999997712E-4</v>
@@ -16001,27 +16002,27 @@
         <v>0</v>
       </c>
       <c r="V165" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="W165" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="166" spans="1:23" ht="135" x14ac:dyDescent="0.15">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="166" spans="1:23" ht="144" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>144</v>
       </c>
       <c r="B166" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C166" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D166" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E166" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F166">
         <v>1.656399999998115E-4</v>
@@ -16072,27 +16073,27 @@
         <v>0.546875</v>
       </c>
       <c r="V166" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="W166" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="167" spans="1:23" ht="121.5" x14ac:dyDescent="0.15">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="167" spans="1:23" ht="129.6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>145</v>
       </c>
       <c r="B167" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C167" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D167" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E167" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F167">
         <v>7.1303000000000338E-4</v>
@@ -16143,13 +16144,13 @@
         <v>0.2109375</v>
       </c>
       <c r="V167" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="W167" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="168" spans="1:23" ht="121.5" x14ac:dyDescent="0.15">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="168" spans="1:23" ht="129.6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>146</v>
       </c>
@@ -16157,13 +16158,13 @@
         <v>77</v>
       </c>
       <c r="C168" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D168" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E168" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F168">
         <v>1.069399999999554E-4</v>
@@ -16214,27 +16215,27 @@
         <v>0.28515625</v>
       </c>
       <c r="V168" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="W168" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="169" spans="1:23" ht="229.5" x14ac:dyDescent="0.15">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="169" spans="1:23" ht="244.8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>127</v>
       </c>
       <c r="B169" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C169" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D169" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E169" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F169">
         <v>4.121400000000719E-4</v>
@@ -16285,27 +16286,27 @@
         <v>6.25E-2</v>
       </c>
       <c r="V169" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="W169" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="170" spans="1:23" ht="135" x14ac:dyDescent="0.15">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="170" spans="1:23" ht="144" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>147</v>
       </c>
       <c r="B170" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C170" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D170" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E170" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F170">
         <v>9.3968099099583918E-5</v>
@@ -16356,27 +16357,27 @@
         <v>3.14453125</v>
       </c>
       <c r="V170" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="W170" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="171" spans="1:23" ht="94.5" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="171" spans="1:23" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>119</v>
       </c>
       <c r="B171" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C171" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D171" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E171" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F171">
         <v>3.4449340600986041E-4</v>
@@ -16427,27 +16428,27 @@
         <v>0</v>
       </c>
       <c r="V171" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="W171" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="172" spans="1:23" ht="121.5" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="172" spans="1:23" ht="129.6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>148</v>
       </c>
       <c r="B172" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C172" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D172" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E172" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F172">
         <v>1.035879016853869E-4</v>
@@ -16498,27 +16499,27 @@
         <v>0</v>
       </c>
       <c r="V172" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="W172" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="173" spans="1:23" ht="135" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="173" spans="1:23" ht="144" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>149</v>
       </c>
       <c r="B173" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C173" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D173" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E173" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F173">
         <v>4.0690590394660832E-4</v>
@@ -16569,27 +16570,27 @@
         <v>0</v>
       </c>
       <c r="V173" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="W173" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="174" spans="1:23" ht="108" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="174" spans="1:23" ht="115.2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>150</v>
       </c>
       <c r="B174" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C174" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D174" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E174" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F174">
         <v>3.8483169628307219E-4</v>
@@ -16640,27 +16641,27 @@
         <v>0</v>
       </c>
       <c r="V174" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="W174" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="175" spans="1:23" ht="148.5" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="175" spans="1:23" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>151</v>
       </c>
       <c r="B175" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C175" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D175" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E175" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F175">
         <v>2.7871879865415389E-4</v>
@@ -16711,27 +16712,27 @@
         <v>0.7734375</v>
       </c>
       <c r="V175" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="W175" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="176" spans="1:23" ht="94.5" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="176" spans="1:23" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>152</v>
       </c>
       <c r="B176" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C176" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D176" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E176" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F176">
         <v>3.0230710399337107E-4</v>
@@ -16782,27 +16783,27 @@
         <v>0</v>
       </c>
       <c r="V176" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="W176" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="177" spans="1:23" ht="135" x14ac:dyDescent="0.15">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="177" spans="1:23" ht="144" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>153</v>
       </c>
       <c r="B177" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C177" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D177" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E177" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F177">
         <v>2.039200000001351E-4</v>
@@ -16853,13 +16854,13 @@
         <v>0</v>
       </c>
       <c r="V177" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="W177" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="178" spans="1:23" ht="162" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="178" spans="1:23" ht="172.8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>154</v>
       </c>
@@ -16867,13 +16868,13 @@
         <v>53</v>
       </c>
       <c r="C178" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D178" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E178" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F178">
         <v>3.7600000000193028E-5</v>
@@ -16924,13 +16925,13 @@
         <v>0</v>
       </c>
       <c r="V178" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="W178" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="179" spans="1:23" ht="175.5" x14ac:dyDescent="0.15">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="179" spans="1:23" ht="187.2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>155</v>
       </c>
@@ -16938,13 +16939,13 @@
         <v>156</v>
       </c>
       <c r="C179" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D179" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E179" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F179">
         <v>9.6690000000165813E-5</v>
@@ -16995,13 +16996,13 @@
         <v>0</v>
       </c>
       <c r="V179" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="W179" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="180" spans="1:23" ht="175.5" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="180" spans="1:23" ht="187.2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>156</v>
       </c>
@@ -17009,13 +17010,13 @@
         <v>158</v>
       </c>
       <c r="C180" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D180" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E180" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F180">
         <v>3.2749999999825982E-5</v>
@@ -17066,13 +17067,13 @@
         <v>0.265625</v>
       </c>
       <c r="V180" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="W180" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="181" spans="1:23" ht="121.5" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="181" spans="1:23" ht="129.6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>157</v>
       </c>
@@ -17080,13 +17081,13 @@
         <v>64</v>
       </c>
       <c r="C181" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D181" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E181" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F181">
         <v>5.8360000000146073E-5</v>
@@ -17137,27 +17138,27 @@
         <v>2.734375E-2</v>
       </c>
       <c r="V181" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="W181" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="182" spans="1:23" ht="121.5" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="182" spans="1:23" ht="129.6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>158</v>
       </c>
       <c r="B182" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C182" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D182" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E182" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F182">
         <v>3.62400000000207E-5</v>
@@ -17208,13 +17209,13 @@
         <v>0.11328125</v>
       </c>
       <c r="V182" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="W182" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="183" spans="1:23" ht="135" x14ac:dyDescent="0.15">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="183" spans="1:23" ht="144" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>63</v>
       </c>
@@ -17222,13 +17223,13 @@
         <v>138</v>
       </c>
       <c r="C183" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D183" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E183" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F183">
         <v>8.3499999999681055E-6</v>
@@ -17279,13 +17280,13 @@
         <v>0</v>
       </c>
       <c r="V183" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="W183" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="184" spans="1:23" ht="324" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="184" spans="1:23" ht="345.6" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>159</v>
       </c>
@@ -17293,13 +17294,13 @@
         <v>158</v>
       </c>
       <c r="C184" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D184" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E184" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F184">
         <v>1.0035000000003791E-4</v>
@@ -17350,27 +17351,27 @@
         <v>0.12109375</v>
       </c>
       <c r="V184" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="W184" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="185" spans="1:23" ht="94.5" x14ac:dyDescent="0.15">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="185" spans="1:23" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>160</v>
       </c>
       <c r="B185" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C185" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D185" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E185" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F185">
         <v>9.799999999948739E-7</v>
@@ -17421,27 +17422,27 @@
         <v>0</v>
       </c>
       <c r="V185" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="W185" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="186" spans="1:23" ht="310.5" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="186" spans="1:23" ht="331.2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>161</v>
       </c>
       <c r="B186" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C186" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D186" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E186" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F186">
         <v>1.20495000000016E-3</v>
@@ -17492,27 +17493,27 @@
         <v>0.37109375</v>
       </c>
       <c r="V186" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="W186" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="187" spans="1:23" ht="121.5" x14ac:dyDescent="0.15">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="187" spans="1:23" ht="129.6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>162</v>
       </c>
       <c r="B187" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C187" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D187" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E187" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F187">
         <v>1.3899999999900099E-6</v>
@@ -17563,27 +17564,27 @@
         <v>0.5</v>
       </c>
       <c r="V187" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="W187" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="188" spans="1:23" ht="94.5" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="188" spans="1:23" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>163</v>
       </c>
       <c r="B188" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C188" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D188" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E188" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F188">
         <v>1.019999999929411E-6</v>
@@ -17634,27 +17635,27 @@
         <v>8.59375E-2</v>
       </c>
       <c r="V188" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="W188" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="189" spans="1:23" ht="175.5" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="189" spans="1:23" ht="187.2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>164</v>
       </c>
       <c r="B189" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C189" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D189" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E189" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F189">
         <v>8.3599999999073308E-6</v>
@@ -17705,27 +17706,27 @@
         <v>0</v>
       </c>
       <c r="V189" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="W189" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="190" spans="1:23" ht="121.5" x14ac:dyDescent="0.15">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="190" spans="1:23" ht="129.6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>165</v>
       </c>
       <c r="B190" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C190" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D190" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E190" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F190">
         <v>4.5527936890721318E-6</v>
@@ -17776,27 +17777,27 @@
         <v>6.25E-2</v>
       </c>
       <c r="V190" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="W190" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="191" spans="1:23" ht="121.5" x14ac:dyDescent="0.15">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="191" spans="1:23" ht="129.6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>166</v>
       </c>
       <c r="B191" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C191" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D191" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E191" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F191">
         <v>5.5968400556594133E-4</v>
@@ -17847,13 +17848,13 @@
         <v>0</v>
       </c>
       <c r="V191" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="W191" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="192" spans="1:23" ht="135" x14ac:dyDescent="0.15">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="192" spans="1:23" ht="144" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>94</v>
       </c>
@@ -17861,13 +17862,13 @@
         <v>166</v>
       </c>
       <c r="C192" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D192" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E192" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F192">
         <v>5.7232414837926628E-5</v>
@@ -17918,27 +17919,27 @@
         <v>0.51953125</v>
       </c>
       <c r="V192" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="W192" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="193" spans="1:23" ht="148.5" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="193" spans="1:23" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>132</v>
       </c>
       <c r="B193" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C193" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D193" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E193" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F193">
         <v>1.0231313994154331E-3</v>
@@ -17989,27 +17990,27 @@
         <v>0</v>
       </c>
       <c r="V193" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="W193" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="194" spans="1:23" ht="135" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="194" spans="1:23" ht="144" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>167</v>
       </c>
       <c r="B194" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C194" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D194" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E194" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F194">
         <v>2.209700993262231E-4</v>
@@ -18060,27 +18061,27 @@
         <v>0.24609375</v>
       </c>
       <c r="V194" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="W194" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="195" spans="1:23" ht="94.5" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="195" spans="1:23" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>168</v>
       </c>
       <c r="B195" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C195" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D195" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E195" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F195">
         <v>2.3496797075495129E-5</v>
@@ -18131,27 +18132,27 @@
         <v>0</v>
       </c>
       <c r="V195" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="W195" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="196" spans="1:23" ht="337.5" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="196" spans="1:23" ht="360" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>169</v>
       </c>
       <c r="B196" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C196" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D196" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E196" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F196">
         <v>1.9821399881038821E-3</v>
@@ -18202,27 +18203,27 @@
         <v>0</v>
       </c>
       <c r="V196" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="W196" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="197" spans="1:23" ht="175.5" x14ac:dyDescent="0.15">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="197" spans="1:23" ht="187.2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>155</v>
       </c>
       <c r="B197" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C197" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D197" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E197" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F197">
         <v>1.5223940717987719E-4</v>
@@ -18273,27 +18274,27 @@
         <v>0.51171875</v>
       </c>
       <c r="V197" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="W197" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="198" spans="1:23" ht="135" x14ac:dyDescent="0.15">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="198" spans="1:23" ht="144" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>170</v>
       </c>
       <c r="B198" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C198" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D198" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E198" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F198">
         <v>2.5476129376329483E-4</v>
@@ -18344,27 +18345,27 @@
         <v>0</v>
       </c>
       <c r="V198" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="W198" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="199" spans="1:23" ht="364.5" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="199" spans="1:23" ht="388.8" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>171</v>
       </c>
       <c r="B199" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C199" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D199" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E199" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F199">
         <v>4.3708711164072158E-4</v>
@@ -18415,13 +18416,13 @@
         <v>0</v>
       </c>
       <c r="V199" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="W199" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="200" spans="1:23" ht="121.5" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="200" spans="1:23" ht="129.6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>172</v>
       </c>
@@ -18429,13 +18430,13 @@
         <v>32</v>
       </c>
       <c r="C200" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D200" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E200" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F200">
         <v>8.7240000000132772E-5</v>
@@ -18486,27 +18487,27 @@
         <v>0</v>
       </c>
       <c r="V200" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="W200" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="201" spans="1:23" ht="135" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="201" spans="1:23" ht="144" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>173</v>
       </c>
       <c r="B201" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C201" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D201" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E201" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F201">
         <v>1.4206849999999971E-2</v>
@@ -18557,27 +18558,27 @@
         <v>0</v>
       </c>
       <c r="V201" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="W201" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="202" spans="1:23" ht="94.5" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="202" spans="1:23" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>174</v>
       </c>
       <c r="B202" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C202" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D202" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E202" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F202">
         <v>3.4599999999951327E-5</v>
@@ -18628,27 +18629,27 @@
         <v>0</v>
       </c>
       <c r="V202" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="W202" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="203" spans="1:23" ht="108" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="203" spans="1:23" ht="115.2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>175</v>
       </c>
       <c r="B203" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C203" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D203" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E203" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F203">
         <v>1.719800000000049E-4</v>
@@ -18699,27 +18700,27 @@
         <v>0</v>
       </c>
       <c r="V203" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="W203" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="204" spans="1:23" ht="162" x14ac:dyDescent="0.15">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="204" spans="1:23" ht="172.8" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>176</v>
       </c>
       <c r="B204" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C204" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D204" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E204" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F204">
         <v>3.0149000000001541E-4</v>
@@ -18770,27 +18771,27 @@
         <v>0</v>
       </c>
       <c r="V204" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="W204" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="205" spans="1:23" ht="243" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="205" spans="1:23" ht="259.2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>177</v>
       </c>
       <c r="B205" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C205" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D205" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E205" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F205">
         <v>1.6450999999984009E-4</v>
@@ -18841,27 +18842,27 @@
         <v>0</v>
       </c>
       <c r="V205" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="W205" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="206" spans="1:23" ht="175.5" x14ac:dyDescent="0.15">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="206" spans="1:23" ht="187.2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>178</v>
       </c>
       <c r="B206" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C206" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D206" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E206" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F206">
         <v>8.2509999999924588E-5</v>
@@ -18912,27 +18913,27 @@
         <v>0</v>
       </c>
       <c r="V206" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="W206" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="207" spans="1:23" ht="108" x14ac:dyDescent="0.15">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="207" spans="1:23" ht="115.2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>179</v>
       </c>
       <c r="B207" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C207" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D207" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E207" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F207">
         <v>5.1970000000256528E-5</v>
@@ -18983,27 +18984,27 @@
         <v>0</v>
       </c>
       <c r="V207" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="W207" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="208" spans="1:23" ht="216" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="208" spans="1:23" ht="230.4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>180</v>
       </c>
       <c r="B208" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C208" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D208" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E208" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F208">
         <v>3.1139999999929557E-5</v>
@@ -19054,27 +19055,27 @@
         <v>7.8125E-2</v>
       </c>
       <c r="V208" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="W208" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="209" spans="1:23" ht="108" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="209" spans="1:23" ht="115.2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>181</v>
       </c>
       <c r="B209" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C209" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D209" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E209" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F209">
         <v>1.584800000000719E-4</v>
@@ -19125,27 +19126,27 @@
         <v>0</v>
       </c>
       <c r="V209" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="W209" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="210" spans="1:23" ht="243" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="210" spans="1:23" ht="259.2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>182</v>
       </c>
       <c r="B210" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C210" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D210" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E210" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F210">
         <v>7.7367294579744339E-5</v>
@@ -19196,27 +19197,27 @@
         <v>0</v>
       </c>
       <c r="V210" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="W210" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="211" spans="1:23" ht="94.5" x14ac:dyDescent="0.15">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="211" spans="1:23" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>183</v>
       </c>
       <c r="B211" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C211" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D211" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E211" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F211">
         <v>1.678699627518654E-5</v>
@@ -19267,27 +19268,27 @@
         <v>0</v>
       </c>
       <c r="V211" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="W211" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="212" spans="1:23" ht="135" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="212" spans="1:23" ht="144" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>184</v>
       </c>
       <c r="B212" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C212" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D212" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E212" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F212">
         <v>3.2789999999938149E-5</v>
@@ -19338,27 +19339,27 @@
         <v>3.90625E-3</v>
       </c>
       <c r="V212" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="W212" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="213" spans="1:23" ht="162" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="213" spans="1:23" ht="172.8" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>185</v>
       </c>
       <c r="B213" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C213" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D213" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E213" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F213">
         <v>1.6077304258942601E-2</v>
@@ -19409,10 +19410,10 @@
         <v>1.08203125</v>
       </c>
       <c r="V213" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="W213" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
   </sheetData>
